--- a/NformTester/NformTester/Keywordscripts/900.30.120_DashboardGlobalOptionsforGadgetDisplay.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.120_DashboardGlobalOptionsforGadgetDisplay.xlsx
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9623" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9622" uniqueCount="997">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4427,10 +4427,6 @@
   </si>
   <si>
     <t>"AllDel"</t>
-  </si>
-  <si>
-    <t>11-329</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4991,8 +4987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5228,9 +5224,7 @@
       <c r="A8" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>997</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5467,7 +5461,7 @@
         <v>216</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5855,7 +5849,7 @@
         <v>216</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>2</v>
@@ -6213,7 +6207,7 @@
         <v>216</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
@@ -6511,7 +6505,7 @@
         <v>216</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>2</v>
@@ -6869,7 +6863,7 @@
         <v>216</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>2</v>
@@ -7227,7 +7221,7 @@
         <v>216</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>2</v>
@@ -7525,7 +7519,7 @@
         <v>216</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
@@ -7883,7 +7877,7 @@
         <v>216</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>2</v>
@@ -8241,7 +8235,7 @@
         <v>216</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>2</v>
@@ -12391,7 +12385,7 @@
         <v>216</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>2</v>
@@ -12541,7 +12535,7 @@
         <v>216</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>2</v>
@@ -12713,7 +12707,7 @@
         <v>216</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>2</v>

--- a/NformTester/NformTester/Keywordscripts/900.30.120_DashboardGlobalOptionsforGadgetDisplay.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.120_DashboardGlobalOptionsforGadgetDisplay.xlsx
@@ -4296,12 +4296,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -4427,6 +4421,14 @@
   </si>
   <si>
     <t>"AllDel"</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4472,6 +4474,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4987,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" topLeftCell="C283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I303" sqref="I303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4996,8 +4999,11 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="37.625" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5167,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>695</v>
@@ -5179,20 +5185,20 @@
       <c r="H6" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>963</v>
       </c>
       <c r="N6" s="6"/>
     </row>
@@ -5295,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -5498,7 +5504,7 @@
         <v>908</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J18" s="4">
         <v>196</v>
@@ -5532,7 +5538,7 @@
         <v>908</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J19" s="4">
         <v>38</v>
@@ -5566,7 +5572,7 @@
         <v>908</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J20" s="4">
         <v>46</v>
@@ -5882,7 +5888,7 @@
         <v>908</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J32" s="4">
         <v>196</v>
@@ -5912,7 +5918,7 @@
         <v>908</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J33" s="4">
         <v>38</v>
@@ -5942,7 +5948,7 @@
         <v>908</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J34" s="4">
         <v>46</v>
@@ -6240,7 +6246,7 @@
         <v>908</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
@@ -6270,7 +6276,7 @@
         <v>908</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J47" s="4">
         <v>100</v>
@@ -6300,7 +6306,7 @@
         <v>908</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -6363,7 +6369,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="10"/>
@@ -6538,7 +6544,7 @@
         <v>908</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J58" s="4">
         <v>254</v>
@@ -6568,7 +6574,7 @@
         <v>908</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J59" s="4">
         <v>203</v>
@@ -6598,7 +6604,7 @@
         <v>908</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
@@ -6896,7 +6902,7 @@
         <v>908</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J72" s="4">
         <v>254</v>
@@ -6926,7 +6932,7 @@
         <v>908</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J73" s="4">
         <v>203</v>
@@ -6956,7 +6962,7 @@
         <v>908</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
@@ -7254,7 +7260,7 @@
         <v>908</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J86" s="4">
         <v>100</v>
@@ -7284,7 +7290,7 @@
         <v>908</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -7314,7 +7320,7 @@
         <v>908</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
@@ -7377,7 +7383,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="10"/>
@@ -7552,7 +7558,7 @@
         <v>908</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J98" s="4">
         <v>146</v>
@@ -7582,7 +7588,7 @@
         <v>908</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J99" s="4">
         <v>212</v>
@@ -7612,7 +7618,7 @@
         <v>908</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J100" s="4">
         <v>0</v>
@@ -7910,7 +7916,7 @@
         <v>908</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J112" s="4">
         <v>146</v>
@@ -7940,7 +7946,7 @@
         <v>908</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J113" s="4">
         <v>212</v>
@@ -7970,7 +7976,7 @@
         <v>908</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J114" s="4">
         <v>0</v>
@@ -8268,7 +8274,7 @@
         <v>908</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J126" s="10">
         <v>0</v>
@@ -8298,7 +8304,7 @@
         <v>908</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J127" s="10">
         <v>0</v>
@@ -8328,7 +8334,7 @@
         <v>908</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J128" s="10">
         <v>100</v>
@@ -8391,7 +8397,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="10"/>
@@ -8409,7 +8415,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="10"/>
@@ -8427,7 +8433,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="10"/>
@@ -8959,7 +8965,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="10"/>
@@ -9347,7 +9353,7 @@
         <v>181</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>2</v>
@@ -9535,7 +9541,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -10067,7 +10073,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="10"/>
@@ -10085,7 +10091,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="10"/>
@@ -10103,7 +10109,7 @@
         <v>202</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="10"/>
@@ -10223,7 +10229,7 @@
         <v>181</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>7</v>
@@ -10253,7 +10259,7 @@
         <v>181</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>2</v>
@@ -10399,7 +10405,7 @@
         <v>181</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>7</v>
@@ -10429,7 +10435,7 @@
         <v>181</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>2</v>
@@ -10575,7 +10581,7 @@
         <v>181</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>7</v>
@@ -10587,7 +10593,7 @@
         <v>909</v>
       </c>
       <c r="J222" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
@@ -10625,7 +10631,7 @@
         <v>223</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E224" s="4"/>
       <c r="F224" s="10"/>
@@ -10745,7 +10751,7 @@
         <v>181</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>7</v>
@@ -10775,7 +10781,7 @@
         <v>181</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>2</v>
@@ -10921,7 +10927,7 @@
         <v>181</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>7</v>
@@ -10951,7 +10957,7 @@
         <v>181</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>2</v>
@@ -11097,7 +11103,7 @@
         <v>181</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>7</v>
@@ -11109,7 +11115,7 @@
         <v>909</v>
       </c>
       <c r="J243" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
@@ -11147,7 +11153,7 @@
         <v>244</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="10"/>
@@ -11267,7 +11273,7 @@
         <v>181</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>7</v>
@@ -11297,7 +11303,7 @@
         <v>181</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>2</v>
@@ -11443,7 +11449,7 @@
         <v>181</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>7</v>
@@ -11473,7 +11479,7 @@
         <v>181</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>2</v>
@@ -11619,7 +11625,7 @@
         <v>181</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G264" s="4" t="s">
         <v>7</v>
@@ -11631,7 +11637,7 @@
         <v>909</v>
       </c>
       <c r="J264" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
@@ -11669,7 +11675,7 @@
         <v>265</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="10"/>
@@ -11789,7 +11795,7 @@
         <v>181</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G271" s="4" t="s">
         <v>7</v>
@@ -11819,7 +11825,7 @@
         <v>181</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G272" s="4" t="s">
         <v>2</v>
@@ -11965,7 +11971,7 @@
         <v>181</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G278" s="4" t="s">
         <v>7</v>
@@ -11995,7 +12001,7 @@
         <v>181</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G279" s="4" t="s">
         <v>2</v>
@@ -12141,7 +12147,7 @@
         <v>181</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G285" s="4" t="s">
         <v>7</v>
@@ -12153,7 +12159,7 @@
         <v>909</v>
       </c>
       <c r="J285" s="20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
@@ -12953,7 +12959,7 @@
         <v>181</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G318" s="4" t="s">
         <v>2</v>
@@ -12977,7 +12983,7 @@
         <v>181</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G319" s="4" t="s">
         <v>2</v>
@@ -13001,7 +13007,7 @@
         <v>181</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>2</v>
@@ -13025,7 +13031,7 @@
         <v>181</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>2</v>
@@ -13253,7 +13259,7 @@
         <v>329</v>
       </c>
       <c r="D330" s="22" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E330" s="21" t="s">
         <v>695</v>
@@ -13263,7 +13269,7 @@
       </c>
       <c r="G330" s="21"/>
       <c r="H330" s="21" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
